--- a/planilhas/listasSolicitacoes.xlsx
+++ b/planilhas/listasSolicitacoes.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="horarios" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="equipes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="codferramentas" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="motivo" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="motivo" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -241,11 +240,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -258,29 +257,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -291,7 +267,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/planilhas/listasSolicitacoes.xlsx
+++ b/planilhas/listasSolicitacoes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="horarios" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t xml:space="preserve">Reparo instalações elétricas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troca da bomba de água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troca do oleo do motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manutenção do andaime</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -240,11 +257,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -261,14 +278,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
